--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_18-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_18-34.xlsx
@@ -245,6 +245,9 @@
     <t>TORSAMOLEX 20MG 20 TABS</t>
   </si>
   <si>
+    <t>TUSSISTOP 60 MG 20 TABS.</t>
+  </si>
+  <si>
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -264,6 +267,9 @@
   </si>
   <si>
     <t>0:1</t>
+  </si>
+  <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
   </si>
   <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
@@ -2248,13 +2254,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2274,17 +2280,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2292,7 +2298,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2300,17 +2306,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2318,7 +2324,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2326,17 +2332,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2344,7 +2350,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2352,17 +2358,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2370,7 +2376,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2378,13 +2384,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2396,7 +2402,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2404,13 +2410,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2422,7 +2428,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2430,13 +2436,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2448,7 +2454,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2456,17 +2462,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>11.67</v>
+        <v>15</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2474,7 +2480,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2482,17 +2488,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2500,7 +2506,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2508,17 +2514,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>20</v>
+        <v>11.67</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2526,7 +2532,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2534,17 +2540,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2552,7 +2558,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2560,17 +2566,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2586,13 +2592,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2612,17 +2618,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>50</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2638,13 +2644,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2664,17 +2670,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2690,13 +2696,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2716,51 +2722,103 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" ht="24.75" customHeight="1">
+      <c r="A74" s="6">
+        <v>71</v>
+      </c>
+      <c t="s" r="B74" s="7">
+        <v>107</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c t="s" r="H74" s="8">
+        <v>29</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="9">
+        <v>20</v>
+      </c>
+      <c r="M74" s="9"/>
+      <c t="s" r="N74" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" ht="25.5" customHeight="1">
+      <c r="A75" s="6">
+        <v>72</v>
+      </c>
+      <c t="s" r="B75" s="7">
+        <v>108</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c t="s" r="H75" s="8">
+        <v>33</v>
+      </c>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="9">
+        <v>80</v>
+      </c>
+      <c r="M75" s="9"/>
+      <c t="s" r="N75" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="K74" s="10">
-        <v>3621.52</v>
-      </c>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="11">
-        <v>107</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c t="s" r="F75" s="12">
-        <v>108</v>
-      </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="13"/>
-      <c t="s" r="I75" s="14">
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="K76" s="10">
+        <v>3701.52</v>
+      </c>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="11">
         <v>109</v>
       </c>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c t="s" r="F77" s="12">
+        <v>110</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13"/>
+      <c t="s" r="I77" s="14">
+        <v>111</v>
+      </c>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="221">
+  <mergeCells count="227">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2978,10 +3036,16 @@
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="I75:N75"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="I77:N77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
